--- a/working/zenkoku-06.xlsx
+++ b/working/zenkoku-06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="トレンド" sheetId="6" r:id="rId1"/>
@@ -1096,9 +1096,6 @@
   </cellStyles>
   <dxfs count="38">
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1109,24 +1106,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
@@ -1248,6 +1228,26 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1301,6 +1301,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10519,11 +10520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="432236000"/>
-        <c:axId val="432239528"/>
+        <c:axId val="446063872"/>
+        <c:axId val="446058384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432236000"/>
+        <c:axId val="446063872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10566,7 +10567,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432239528"/>
+        <c:crossAx val="446058384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10574,7 +10575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432239528"/>
+        <c:axId val="446058384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="95"/>
@@ -10627,9 +10628,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432236000"/>
+        <c:crossAx val="446063872"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10641,6 +10642,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12187,11 +12189,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432246192"/>
-        <c:axId val="432237960"/>
+        <c:axId val="446055248"/>
+        <c:axId val="446057992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432246192"/>
+        <c:axId val="446055248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -12309,13 +12311,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432237960"/>
+        <c:crossAx val="446057992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432237960"/>
+        <c:axId val="446057992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -12433,7 +12435,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432246192"/>
+        <c:crossAx val="446055248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13709,7 +13711,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A6:AJ54" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A6:AJ54" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="A6:AJ54"/>
   <sortState ref="A7:AI54">
     <sortCondition ref="A6:A54"/>
@@ -13717,58 +13719,58 @@
   <tableColumns count="36">
     <tableColumn id="1" name="通し番号"/>
     <tableColumn id="2" name="都道府県"/>
-    <tableColumn id="3" name="1947" dataDxfId="36"/>
-    <tableColumn id="4" name="1950" dataDxfId="35"/>
-    <tableColumn id="5" name="1953" dataDxfId="34"/>
-    <tableColumn id="6" name="1956" dataDxfId="33"/>
-    <tableColumn id="7" name="1959" dataDxfId="32"/>
-    <tableColumn id="8" name="1962" dataDxfId="31"/>
-    <tableColumn id="9" name="1965" dataDxfId="30"/>
-    <tableColumn id="10" name="1968" dataDxfId="29"/>
-    <tableColumn id="11" name="1971" dataDxfId="28"/>
-    <tableColumn id="12" name="1974" dataDxfId="27"/>
-    <tableColumn id="13" name="1977" dataDxfId="26"/>
-    <tableColumn id="14" name="1980" dataDxfId="25"/>
-    <tableColumn id="15" name="1983" dataDxfId="24"/>
-    <tableColumn id="16" name="1986" dataDxfId="23"/>
-    <tableColumn id="17" name="1989" dataDxfId="22"/>
-    <tableColumn id="18" name="1992" dataDxfId="21"/>
-    <tableColumn id="19" name="1995" dataDxfId="20"/>
-    <tableColumn id="20" name="1998" dataDxfId="19"/>
-    <tableColumn id="21" name="2001" dataDxfId="18"/>
-    <tableColumn id="22" name="2004" dataDxfId="17"/>
-    <tableColumn id="23" name="2007" dataDxfId="16"/>
-    <tableColumn id="24" name="2010" dataDxfId="15"/>
-    <tableColumn id="25" name="2013" dataDxfId="14"/>
-    <tableColumn id="26" name="2016" dataDxfId="13"/>
-    <tableColumn id="27" name="県議選TRUE" dataDxfId="12">
+    <tableColumn id="3" name="1947" dataDxfId="34"/>
+    <tableColumn id="4" name="1950" dataDxfId="33"/>
+    <tableColumn id="5" name="1953" dataDxfId="32"/>
+    <tableColumn id="6" name="1956" dataDxfId="31"/>
+    <tableColumn id="7" name="1959" dataDxfId="30"/>
+    <tableColumn id="8" name="1962" dataDxfId="29"/>
+    <tableColumn id="9" name="1965" dataDxfId="28"/>
+    <tableColumn id="10" name="1968" dataDxfId="27"/>
+    <tableColumn id="11" name="1971" dataDxfId="26"/>
+    <tableColumn id="12" name="1974" dataDxfId="25"/>
+    <tableColumn id="13" name="1977" dataDxfId="24"/>
+    <tableColumn id="14" name="1980" dataDxfId="23"/>
+    <tableColumn id="15" name="1983" dataDxfId="22"/>
+    <tableColumn id="16" name="1986" dataDxfId="21"/>
+    <tableColumn id="17" name="1989" dataDxfId="20"/>
+    <tableColumn id="18" name="1992" dataDxfId="19"/>
+    <tableColumn id="19" name="1995" dataDxfId="18"/>
+    <tableColumn id="20" name="1998" dataDxfId="17"/>
+    <tableColumn id="21" name="2001" dataDxfId="16"/>
+    <tableColumn id="22" name="2004" dataDxfId="15"/>
+    <tableColumn id="23" name="2007" dataDxfId="14"/>
+    <tableColumn id="24" name="2010" dataDxfId="13"/>
+    <tableColumn id="25" name="2013" dataDxfId="12"/>
+    <tableColumn id="26" name="2016" dataDxfId="11"/>
+    <tableColumn id="27" name="県議選TRUE" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(テーブル2[[#This Row],[都道府県]],選挙疲れ, 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="知事選TRUE" dataDxfId="11">
+    <tableColumn id="28" name="知事選TRUE" dataDxfId="9">
       <calculatedColumnFormula>VLOOKUP(テーブル2[[#This Row],[都道府県]],選挙疲れ, 5, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="県議選のみ作業用" dataDxfId="10">
+    <tableColumn id="31" name="県議選のみ作業用" dataDxfId="8">
       <calculatedColumnFormula>AND(テーブル2[[#This Row],[県議選TRUE]], NOT(テーブル2[[#This Row],[知事選TRUE]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="知事選のみ作業用" dataDxfId="9">
+    <tableColumn id="30" name="知事選のみ作業用" dataDxfId="7">
       <calculatedColumnFormula>AND(NOT(テーブル2[[#This Row],[県議選TRUE]]),テーブル2[[#This Row],[知事選TRUE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="両方あった作業用" dataDxfId="8">
+    <tableColumn id="29" name="両方あった作業用" dataDxfId="6">
       <calculatedColumnFormula>AND(テーブル2[[#This Row],[県議選TRUE]],テーブル2[[#This Row],[知事選TRUE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" name="なし作業用" dataDxfId="0">
+    <tableColumn id="36" name="なし作業用" dataDxfId="5">
       <calculatedColumnFormula>AND(NOT(テーブル2[[#This Row],[県議選TRUE]]),NOT(テーブル2[[#This Row],[知事選TRUE]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="県議選のみ" dataDxfId="7">
+    <tableColumn id="32" name="県議選のみ" dataDxfId="4">
       <calculatedColumnFormula>IF(テーブル2[[#This Row],[県議選のみ作業用]],テーブル2[[#This Row],[2007]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="知事選のみ" dataDxfId="6">
+    <tableColumn id="33" name="知事選のみ" dataDxfId="3">
       <calculatedColumnFormula>IF(テーブル2[[#This Row],[知事選のみ作業用]],テーブル2[[#This Row],[2007]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" name="両方あった" dataDxfId="5">
+    <tableColumn id="34" name="両方あった" dataDxfId="2">
       <calculatedColumnFormula>IF(テーブル2[[#This Row],[両方あった作業用]], テーブル2[[#This Row],[2007]], "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="なし" dataDxfId="4"/>
+    <tableColumn id="35" name="なし" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14043,7 +14045,7 @@
   <dimension ref="A1:AJ54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="AC7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight"/>
@@ -19959,12 +19961,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC6:AF54">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AI6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21098,7 +21100,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
